--- a/spreadsheet/macrofree/blob_storage_security_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/blob_storage_security_checklist.pt.xlsx
@@ -1669,7 +1669,7 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Limitar tokens de assinatura de acesso compartilhado (SAS) apenas a conexões HTTPS</t>
+          <t>Limitar tokens de assinatura de acesso compartilhado (SAS) somente a conexões HTTPS</t>
         </is>
       </c>
       <c r="D20" s="21" t="inlineStr">
@@ -1774,7 +1774,7 @@
       </c>
       <c r="D22" s="21" t="inlineStr">
         <is>
-          <t>Ao atribuir uma função a um usuário, grupo ou aplicativo, conceda a essa entidade de segurança somente as permissões necessárias para que eles executem suas tarefas. Limitar o acesso aos recursos ajuda a evitar o uso indevido não intencional e mal-intencionado de seus dados.</t>
+          <t>Ao atribuir uma função a um usuário, grupo ou aplicativo, conceda a essa entidade de segurança apenas as permissões necessárias para que eles executem suas tarefas. Limitar o acesso aos recursos ajuda a evitar o uso indevido não intencional e mal-intencionado de seus dados.</t>
         </is>
       </c>
       <c r="E22" s="21" t="inlineStr">
@@ -1865,7 +1865,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Considere desabilitar as chaves de conta de armazenamento, para que somente o acesso ao AAD (e a delegação do usuário SAS) seja suportado.</t>
+          <t>Considere desabilitar as chaves de conta de armazenamento, para que somente o acesso ao AAD (e a delegação de usuários SAS) seja suportado.</t>
         </is>
       </c>
       <c r="D24" s="21" t="inlineStr">
